--- a/src/api/opcua/ua-cherkassy-azot_test2/DayReport-CH_M52_ACM.xlsx
+++ b/src/api/opcua/ua-cherkassy-azot_test2/DayReport-CH_M52_ACM.xlsx
@@ -31,7 +31,7 @@
     <definedName name="xls_alt_path">config!$AH$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">data!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -231,10 +231,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="172" formatCode="0.000"/>
-    <numFmt numFmtId="176" formatCode="dd\.mm\.yyyy\ h:mm;@"/>
-    <numFmt numFmtId="177" formatCode="hh:mm:ss"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy\ h:mm;@"/>
+    <numFmt numFmtId="166" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="168" formatCode="d/m/yyyy;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -656,7 +657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -706,7 +707,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -732,34 +733,34 @@
     <xf numFmtId="1" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -774,16 +775,22 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -796,18 +803,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2353,7 +2355,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2464,34 +2468,34 @@
       <c r="P8" s="17"/>
     </row>
     <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="57" t="s">
+      <c r="J9" s="59" t="s">
         <v>61</v>
       </c>
       <c r="N9" s="19"/>
@@ -2500,15 +2504,15 @@
     </row>
     <row r="10" spans="1:16" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="61"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="58"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="60"/>
       <c r="N10" s="20"/>
       <c r="O10" s="20"/>
       <c r="P10" s="20"/>
@@ -3489,7 +3493,7 @@
       <c r="E36" s="25"/>
     </row>
     <row r="37" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="24"/>
+      <c r="A37" s="63"/>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -3546,7 +3550,7 @@
     <row r="44" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="62">
         <f ca="1">NOW()</f>
-        <v>44587.409297337967</v>
+        <v>44588.428872569442</v>
       </c>
       <c r="B44" s="62"/>
       <c r="C44" s="22"/>
@@ -3562,16 +3566,16 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
